--- a/文档/FE/JS.xlsx
+++ b/文档/FE/JS.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ES6" sheetId="1" r:id="rId1"/>
+    <sheet name="babel" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>数据属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,13 +43,445 @@
   <si>
     <t>async/await (Node.js 8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object.assign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Object.assign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法只会拷贝源对象自身的并且可枚举的属性到目标对象。该方法使用源对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[Get]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和目标对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[Set]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，所以它会调用相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> getter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> setter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./node_modules/.bin/babel src --out-dir lib --plugins=@babel/plugin-transform-arrow-functions</t>
+  </si>
+  <si>
+    <t>preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我们使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@babel/cli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> 从终端运行 Babel，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@babel/polyfill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> 来实现所有新的 JavaScript 功能，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> preset 只包含我们使用的功能的转换，实现我们的目标浏览器中缺少的功能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一个属性可以同时 1）从一个对象解构，并分配给一个不同名称的变量 2）分配一个默认值，以防未解构的值是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>重命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">aa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">bb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +501,73 @@
       <color rgb="FF585858"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0077AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9A6E3A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +578,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3D7E9A"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -90,11 +599,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,25 +922,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -427,12 +1010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/文档/FE/JS.xlsx
+++ b/文档/FE/JS.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ES6" sheetId="1" r:id="rId1"/>
-    <sheet name="babel" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="babel" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>数据属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,13 +476,30 @@
       </rPr>
       <t>};</t>
     </r>
+  </si>
+  <si>
+    <t>http://thecodebarbarian.com/</t>
+  </si>
+  <si>
+    <t>编程野蛮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pqina.nl/doka/?ref=docs</t>
+  </si>
+  <si>
+    <t>一个图片剪切的闭源库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://vuejs-templates.github.io/webpack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +586,14 @@
       <color rgb="FF990055"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -596,10 +622,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -618,9 +645,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -636,7 +665,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -973,6 +1002,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1010,12 +1085,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
